--- a/_CLUSTER/groups_time_area/groups_counts_area4_Pg.xlsx
+++ b/_CLUSTER/groups_time_area/groups_counts_area4_Pg.xlsx
@@ -375,7 +375,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
         <v>2</v>
@@ -383,7 +383,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
         <v>1</v>

--- a/_CLUSTER/groups_time_area/groups_counts_area4_Pg.xlsx
+++ b/_CLUSTER/groups_time_area/groups_counts_area4_Pg.xlsx
@@ -367,10 +367,8 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>groups</t>
-        </is>
+      <c r="B1" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="2">
